--- a/SuppXLS/Scen_DemProj_DTCAR.xlsx
+++ b/SuppXLS/Scen_DemProj_DTCAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\DemoS_012_Vonline\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA_Release\Demo_S012_Vonline\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8178AB05-1BBD-4F54-AE39-15FCC29CC354}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94643AFB-AEF5-451C-9FF7-6A0B98143442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,9 +277,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -884,10 +883,10 @@
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -916,7 +915,7 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
@@ -925,10 +924,10 @@
       <c r="G4">
         <v>2005</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>3100.59695159375</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>3067.06485564375</v>
       </c>
       <c r="J4" t="s">
@@ -971,10 +970,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -998,10 +997,10 @@
       <c r="H3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1012,21 +1011,21 @@
       <c r="E4">
         <v>2006</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="12">
         <f>BY_Data!$H$4*(1+$K$4)^(E4-2005)</f>
         <v>3162.608890625625</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f>BY_Data!$H$4*(1+$L$4)^(E4-2005)</f>
         <v>3193.6148601415625</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>0.02</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="9">
         <v>0.03</v>
       </c>
     </row>
@@ -1037,19 +1036,19 @@
       <c r="E5">
         <v>2010</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="12">
         <f>BY_Data!$H$4*(1+$K$4)^(E5-2005)</f>
         <v>3423.309572715099</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f>BY_Data!$H$4*(1+$L$4)^(E5-2005)</f>
         <v>3594.4416608362458</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
@@ -1058,19 +1057,19 @@
       <c r="E6">
         <v>2015</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <f>BY_Data!$H$4*(1+$K$4)^(E6-2005)</f>
         <v>3779.6103826455351</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f>BY_Data!$H$4*(1+$L$4)^(E6-2005)</f>
         <v>4166.9430289912934</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
@@ -1079,19 +1078,19 @@
       <c r="E7">
         <v>2020</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <f>BY_Data!$H$4*(1+$K$4)^(E7-2005)</f>
         <v>4172.9952670543407</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f>BY_Data!$H$4*(1+$L$4)^(E7-2005)</f>
         <v>4830.6290225947205</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
